--- a/public/file_nilai/2063710424nilai_kelas6_import.xlsx
+++ b/public/file_nilai/2063710424nilai_kelas6_import.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alirena\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\pbpm\public\file_nilai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF5AFEE-7797-48CF-ADC5-032D613FDBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D019524E-F4F6-4C24-8EB7-B54C2C073D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13587" yWindow="0" windowWidth="13887" windowHeight="14799" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,46 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="150">
-  <si>
-    <t>Apriana Patrisia</t>
-  </si>
-  <si>
-    <t>Febiela Kasipka</t>
-  </si>
-  <si>
-    <t>Frisky Rirung</t>
-  </si>
-  <si>
-    <t>Gabriela Maria Sumolang</t>
-  </si>
-  <si>
-    <t>Gomerio Kogoya</t>
-  </si>
-  <si>
-    <t>Harun Agapa</t>
-  </si>
-  <si>
-    <t>Kevin Fringkeuw</t>
-  </si>
-  <si>
-    <t>Listra Lipyi</t>
-  </si>
-  <si>
-    <t>Muhamad Yusuf Ahmad</t>
-  </si>
-  <si>
-    <t>Marsela Almung</t>
-  </si>
-  <si>
-    <t>Natalia Kasipka</t>
-  </si>
-  <si>
-    <t>Naura</t>
-  </si>
-  <si>
-    <t>Petrus Uropkulin</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="114">
   <si>
     <t>kelas</t>
   </si>
@@ -159,36 +119,6 @@
     <t>Penilaian</t>
   </si>
   <si>
-    <t>Latihan 1</t>
-  </si>
-  <si>
-    <t>Latihan 2</t>
-  </si>
-  <si>
-    <t>Latihan 3</t>
-  </si>
-  <si>
-    <t>Latihan 4</t>
-  </si>
-  <si>
-    <t>Latihan 5</t>
-  </si>
-  <si>
-    <t>Tugas 1</t>
-  </si>
-  <si>
-    <t>Tugas 2</t>
-  </si>
-  <si>
-    <t>Tugas 3</t>
-  </si>
-  <si>
-    <t>Tugas 4</t>
-  </si>
-  <si>
-    <t>Tugas 5</t>
-  </si>
-  <si>
     <t>Ulangan Harian</t>
   </si>
   <si>
@@ -237,9 +167,6 @@
     <t>Guru</t>
   </si>
   <si>
-    <t>Isak S. Snanfi</t>
-  </si>
-  <si>
     <t>Chandra Kirana</t>
   </si>
   <si>
@@ -249,9 +176,6 @@
     <t>Erlina</t>
   </si>
   <si>
-    <t>Bernadus Beda Balepapan</t>
-  </si>
-  <si>
     <t>Rinto Sianturi</t>
   </si>
   <si>
@@ -267,72 +191,12 @@
     <t>Floriana Golu Aran</t>
   </si>
   <si>
-    <t xml:space="preserve">Heri </t>
-  </si>
-  <si>
     <t>Nasrawati</t>
   </si>
   <si>
     <t>Nama</t>
   </si>
   <si>
-    <t>Aprilia</t>
-  </si>
-  <si>
-    <t>Rahel Uropmabin</t>
-  </si>
-  <si>
-    <t>Robi Izak Jikwa</t>
-  </si>
-  <si>
-    <t>Selpina Kakyarmabin</t>
-  </si>
-  <si>
-    <t>Zaskia Nurfadila Aras</t>
-  </si>
-  <si>
-    <t>Denisa Uropkulin</t>
-  </si>
-  <si>
-    <t>Golda Sima Alimdam</t>
-  </si>
-  <si>
-    <t>Hendrik Andreas Almung</t>
-  </si>
-  <si>
-    <t>Jenepia Taplo</t>
-  </si>
-  <si>
-    <t>Johan Markus Kilanki</t>
-  </si>
-  <si>
-    <t>Lisa Uropkulin</t>
-  </si>
-  <si>
-    <t>Merlin Almung</t>
-  </si>
-  <si>
-    <t>Mila Dumkon Bamulki</t>
-  </si>
-  <si>
-    <t>Wilem Bidana</t>
-  </si>
-  <si>
-    <t>Yemis Bidana</t>
-  </si>
-  <si>
-    <t>Kadakon Ningmabin</t>
-  </si>
-  <si>
-    <t>Tinip Uopdana</t>
-  </si>
-  <si>
-    <t>Jesica Putri Maharani</t>
-  </si>
-  <si>
-    <t>Ekelunok Alwoka</t>
-  </si>
-  <si>
     <t>AGUS B. OKLAKA</t>
   </si>
   <si>
@@ -484,6 +348,33 @@
   </si>
   <si>
     <t>PRISILA UOPMABIN</t>
+  </si>
+  <si>
+    <t>Heri Handoko</t>
+  </si>
+  <si>
+    <t>Selpianus Nabyal</t>
+  </si>
+  <si>
+    <t>Tugas</t>
+  </si>
+  <si>
+    <t>Latihan</t>
+  </si>
+  <si>
+    <t>Pemetaan Awal</t>
+  </si>
+  <si>
+    <t>Praktek</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Portofolio</t>
+  </si>
+  <si>
+    <t>Presentasi</t>
   </si>
 </sst>
 </file>
@@ -854,8 +745,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="F6:G19" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="F6:G19" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="F6:G17" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="F6:G17" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Penilaian" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Nomor"/>
@@ -876,10 +767,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="O1:P18" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="O1:P18" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O2:P18">
-    <sortCondition ref="O1:O18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="O1:P17" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="O1:P17" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O2:P17">
+    <sortCondition ref="O1:O17"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Guru"/>
@@ -1188,67 +1079,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="D14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" customWidth="1"/>
-    <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="2.875" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.85546875" customWidth="1"/>
     <col min="14" max="24" width="9" customWidth="1"/>
-    <col min="25" max="28" width="9.125" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="8.625" hidden="1" customWidth="1"/>
-    <col min="30" max="34" width="9.125" hidden="1" customWidth="1"/>
+    <col min="25" max="28" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="8.5703125" hidden="1" customWidth="1"/>
+    <col min="30" max="34" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M1" s="3"/>
     </row>
@@ -1260,10 +1151,10 @@
         <v>2022</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1281,7 +1172,7 @@
         <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="K2">
         <v>668</v>
@@ -1298,10 +1189,10 @@
         <v>2022</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1319,7 +1210,7 @@
         <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="K3">
         <v>669</v>
@@ -1336,10 +1227,10 @@
         <v>2022</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1357,7 +1248,7 @@
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="K4">
         <v>670</v>
@@ -1374,10 +1265,10 @@
         <v>2022</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1395,7 +1286,7 @@
         <v>6</v>
       </c>
       <c r="J5" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="K5">
         <v>671</v>
@@ -1412,10 +1303,10 @@
         <v>2022</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1433,7 +1324,7 @@
         <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="K6">
         <v>672</v>
@@ -1450,10 +1341,10 @@
         <v>2022</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1471,7 +1362,7 @@
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="K7">
         <v>673</v>
@@ -1488,10 +1379,10 @@
         <v>2022</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1509,7 +1400,7 @@
         <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K8">
         <v>674</v>
@@ -1526,10 +1417,10 @@
         <v>2022</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1547,7 +1438,7 @@
         <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="K9">
         <v>675</v>
@@ -1564,10 +1455,10 @@
         <v>2022</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1585,7 +1476,7 @@
         <v>6</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="K10">
         <v>676</v>
@@ -1602,10 +1493,10 @@
         <v>2022</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1623,7 +1514,7 @@
         <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="K11">
         <v>677</v>
@@ -1640,10 +1531,10 @@
         <v>2022</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1661,7 +1552,7 @@
         <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="K12">
         <v>678</v>
@@ -1678,10 +1569,10 @@
         <v>2022</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1699,7 +1590,7 @@
         <v>6</v>
       </c>
       <c r="J13" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="K13">
         <v>679</v>
@@ -1716,10 +1607,10 @@
         <v>2022</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1737,7 +1628,7 @@
         <v>6</v>
       </c>
       <c r="J14" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="K14">
         <v>680</v>
@@ -1754,10 +1645,10 @@
         <v>2022</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1775,7 +1666,7 @@
         <v>6</v>
       </c>
       <c r="J15" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="K15">
         <v>681</v>
@@ -1792,10 +1683,10 @@
         <v>2022</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1813,7 +1704,7 @@
         <v>6</v>
       </c>
       <c r="J16" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="K16">
         <v>682</v>
@@ -1830,10 +1721,10 @@
         <v>2022</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1851,7 +1742,7 @@
         <v>6</v>
       </c>
       <c r="J17" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="K17">
         <v>683</v>
@@ -1868,10 +1759,10 @@
         <v>2022</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1889,7 +1780,7 @@
         <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="K18">
         <v>684</v>
@@ -1906,10 +1797,10 @@
         <v>2022</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1927,7 +1818,7 @@
         <v>6</v>
       </c>
       <c r="J19" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="K19">
         <v>685</v>
@@ -1944,10 +1835,10 @@
         <v>2022</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1965,7 +1856,7 @@
         <v>6</v>
       </c>
       <c r="J20" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="K20">
         <v>686</v>
@@ -1982,10 +1873,10 @@
         <v>2022</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2003,7 +1894,7 @@
         <v>6</v>
       </c>
       <c r="J21" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="K21">
         <v>687</v>
@@ -2020,10 +1911,10 @@
         <v>2022</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2041,7 +1932,7 @@
         <v>6</v>
       </c>
       <c r="J22" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="K22">
         <v>688</v>
@@ -2058,10 +1949,10 @@
         <v>2022</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2079,7 +1970,7 @@
         <v>6</v>
       </c>
       <c r="J23" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="K23">
         <v>689</v>
@@ -2096,10 +1987,10 @@
         <v>2022</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2117,7 +2008,7 @@
         <v>6</v>
       </c>
       <c r="J24" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="K24">
         <v>690</v>
@@ -2134,10 +2025,10 @@
         <v>2022</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2155,7 +2046,7 @@
         <v>6</v>
       </c>
       <c r="J25" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="K25">
         <v>691</v>
@@ -2172,10 +2063,10 @@
         <v>2022</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2193,7 +2084,7 @@
         <v>6</v>
       </c>
       <c r="J26" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="K26">
         <v>692</v>
@@ -2210,10 +2101,10 @@
         <v>2022</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2231,7 +2122,7 @@
         <v>6</v>
       </c>
       <c r="J27" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="K27">
         <v>693</v>
@@ -2248,10 +2139,10 @@
         <v>2022</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2269,7 +2160,7 @@
         <v>6</v>
       </c>
       <c r="J28" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="K28">
         <v>694</v>
@@ -2286,10 +2177,10 @@
         <v>2022</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2307,7 +2198,7 @@
         <v>6</v>
       </c>
       <c r="J29" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="K29">
         <v>695</v>
@@ -2324,10 +2215,10 @@
         <v>2022</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2345,7 +2236,7 @@
         <v>6</v>
       </c>
       <c r="J30" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="K30">
         <v>696</v>
@@ -2362,10 +2253,10 @@
         <v>2022</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2383,7 +2274,7 @@
         <v>6</v>
       </c>
       <c r="J31" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K31">
         <v>697</v>
@@ -2400,10 +2291,10 @@
         <v>2022</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2421,7 +2312,7 @@
         <v>6</v>
       </c>
       <c r="J32" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K32">
         <v>698</v>
@@ -2438,10 +2329,10 @@
         <v>2022</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2459,7 +2350,7 @@
         <v>6</v>
       </c>
       <c r="J33" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="K33">
         <v>699</v>
@@ -2476,10 +2367,10 @@
         <v>2022</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2497,7 +2388,7 @@
         <v>6</v>
       </c>
       <c r="J34" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="K34">
         <v>700</v>
@@ -2514,10 +2405,10 @@
         <v>2022</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2535,7 +2426,7 @@
         <v>6</v>
       </c>
       <c r="J35" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="K35">
         <v>701</v>
@@ -2552,10 +2443,10 @@
         <v>2022</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2573,7 +2464,7 @@
         <v>6</v>
       </c>
       <c r="J36" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="K36">
         <v>702</v>
@@ -2590,10 +2481,10 @@
         <v>2022</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2611,7 +2502,7 @@
         <v>6</v>
       </c>
       <c r="J37" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="K37">
         <v>703</v>
@@ -2628,10 +2519,10 @@
         <v>2022</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2649,7 +2540,7 @@
         <v>6</v>
       </c>
       <c r="J38" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="K38">
         <v>704</v>
@@ -2666,10 +2557,10 @@
         <v>2022</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2687,7 +2578,7 @@
         <v>6</v>
       </c>
       <c r="J39" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="K39">
         <v>705</v>
@@ -2704,10 +2595,10 @@
         <v>2022</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2725,7 +2616,7 @@
         <v>6</v>
       </c>
       <c r="J40" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="K40">
         <v>706</v>
@@ -2742,10 +2633,10 @@
         <v>2022</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2763,7 +2654,7 @@
         <v>6</v>
       </c>
       <c r="J41" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="K41">
         <v>707</v>
@@ -2780,10 +2671,10 @@
         <v>2022</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2801,7 +2692,7 @@
         <v>6</v>
       </c>
       <c r="J42" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="K42">
         <v>708</v>
@@ -2818,10 +2709,10 @@
         <v>2022</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2839,7 +2730,7 @@
         <v>6</v>
       </c>
       <c r="J43" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="K43">
         <v>709</v>
@@ -2856,10 +2747,10 @@
         <v>2022</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2877,7 +2768,7 @@
         <v>6</v>
       </c>
       <c r="J44" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="K44">
         <v>710</v>
@@ -2894,10 +2785,10 @@
         <v>2022</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2915,7 +2806,7 @@
         <v>6</v>
       </c>
       <c r="J45" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="K45">
         <v>711</v>
@@ -2932,10 +2823,10 @@
         <v>2022</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2953,7 +2844,7 @@
         <v>6</v>
       </c>
       <c r="J46" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="K46">
         <v>712</v>
@@ -2970,10 +2861,10 @@
         <v>2022</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2991,7 +2882,7 @@
         <v>6</v>
       </c>
       <c r="J47" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="K47">
         <v>713</v>
@@ -3008,10 +2899,10 @@
         <v>2022</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3029,7 +2920,7 @@
         <v>6</v>
       </c>
       <c r="J48" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="K48">
         <v>714</v>
@@ -3046,10 +2937,10 @@
         <v>2022</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3067,7 +2958,7 @@
         <v>6</v>
       </c>
       <c r="J49" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="K49">
         <v>715</v>
@@ -3084,10 +2975,10 @@
         <v>2022</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3105,7 +2996,7 @@
         <v>6</v>
       </c>
       <c r="J50" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="K50">
         <v>716</v>
@@ -3122,10 +3013,10 @@
         <v>2022</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3143,7 +3034,7 @@
         <v>6</v>
       </c>
       <c r="J51" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="K51">
         <v>717</v>
@@ -3160,10 +3051,10 @@
         <v>2022</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3181,7 +3072,7 @@
         <v>6</v>
       </c>
       <c r="J52" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="K52">
         <v>718</v>
@@ -3202,86 +3093,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
-    <col min="8" max="8" width="2.875" customWidth="1"/>
-    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.125" customWidth="1"/>
-    <col min="11" max="11" width="2.25" customWidth="1"/>
-    <col min="12" max="13" width="9.125" customWidth="1"/>
-    <col min="14" max="14" width="2.25" customWidth="1"/>
-    <col min="15" max="15" width="15.625" customWidth="1"/>
-    <col min="16" max="16" width="9.125" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="2.28515625" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="2.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>668</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -3289,31 +3180,31 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>669</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2">
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M3">
         <v>2</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -3321,25 +3212,25 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>670</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="M4">
         <v>3</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="P4">
         <v>3</v>
@@ -3347,25 +3238,25 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>671</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="M5">
         <v>4</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="P5">
         <v>4</v>
@@ -3373,31 +3264,31 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="B6">
-        <v>55</v>
+        <v>672</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="M6">
         <v>5</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="P6">
         <v>5</v>
@@ -3405,31 +3296,31 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>673</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J7">
         <v>6</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="M7">
         <v>6</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="P7">
         <v>6</v>
@@ -3437,25 +3328,25 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>674</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J8">
         <v>7</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>77</v>
+      <c r="O8" t="s">
+        <v>39</v>
       </c>
       <c r="P8">
         <v>7</v>
@@ -3463,25 +3354,25 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>675</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J9">
         <v>8</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>67</v>
+      <c r="O9" t="s">
+        <v>40</v>
       </c>
       <c r="P9">
         <v>8</v>
@@ -3489,25 +3380,25 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="B10">
-        <v>59</v>
+        <v>676</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J10">
         <v>9</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="P10">
         <v>9</v>
@@ -3515,25 +3406,25 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>677</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J11">
         <v>10</v>
       </c>
-      <c r="O11" t="s">
-        <v>63</v>
+      <c r="O11" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="P11">
         <v>10</v>
@@ -3541,19 +3432,19 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B12">
-        <v>61</v>
+        <v>678</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="G12">
         <v>6</v>
       </c>
-      <c r="O12" t="s">
-        <v>64</v>
+      <c r="O12" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="P12">
         <v>11</v>
@@ -3561,19 +3452,19 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="B13">
-        <v>62</v>
+        <v>679</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="G13">
         <v>7</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="P13">
         <v>12</v>
@@ -3581,19 +3472,19 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="B14">
-        <v>63</v>
+        <v>680</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="G14">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="P14">
         <v>13</v>
@@ -3601,19 +3492,19 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="B15">
-        <v>64</v>
+        <v>681</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="G15">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="P15">
         <v>14</v>
@@ -3621,19 +3512,19 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B16">
-        <v>65</v>
+        <v>682</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="G16">
-        <v>10</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>69</v>
+        <v>20</v>
+      </c>
+      <c r="O16" t="s">
+        <v>42</v>
       </c>
       <c r="P16">
         <v>15</v>
@@ -3641,19 +3532,19 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B17">
-        <v>66</v>
+        <v>683</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="G17">
-        <v>11</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>75</v>
+        <v>21</v>
+      </c>
+      <c r="O17" t="s">
+        <v>106</v>
       </c>
       <c r="P17">
         <v>16</v>
@@ -3661,148 +3552,282 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B18">
-        <v>67</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18">
-        <v>12</v>
-      </c>
-      <c r="O18" t="s">
-        <v>65</v>
-      </c>
-      <c r="P18">
-        <v>17</v>
+        <v>684</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="B19">
-        <v>68</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19">
-        <v>13</v>
+        <v>685</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="B20">
-        <v>69</v>
+        <v>686</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B21">
-        <v>70</v>
+        <v>687</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B22">
-        <v>71</v>
+        <v>688</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B23">
-        <v>72</v>
+        <v>689</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="B24">
-        <v>73</v>
+        <v>690</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="B25">
-        <v>74</v>
+        <v>691</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B26">
-        <v>75</v>
+        <v>692</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B27">
-        <v>76</v>
+        <v>693</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B28">
-        <v>77</v>
+        <v>694</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29">
-        <v>78</v>
+        <v>695</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B30">
-        <v>79</v>
+        <v>696</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B31">
-        <v>80</v>
+        <v>697</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B32">
-        <v>81</v>
+        <v>698</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B33">
-        <v>82</v>
+        <v>699</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52">
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -3815,16 +3840,4 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>